--- a/doc/道具信息.xlsx
+++ b/doc/道具信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Px Project\Programming\python\皇室导弹战争数据包更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\czm我的世界\数据包\Missile Wars\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F46215B-A8D5-4762-8A8E-815D946FB4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC93C756-CFD9-4368-BE08-9097AB78E4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1802,13 +1802,13 @@
         <v>0.45</v>
       </c>
       <c r="K15">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
         <v>139</v>

--- a/doc/道具信息.xlsx
+++ b/doc/道具信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\czm我的世界\数据包\Missile Wars\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC93C756-CFD9-4368-BE08-9097AB78E4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7AE8A3-2CD1-4C9D-BEA2-44CF85C77B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="170">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,6 +637,26 @@
   </si>
   <si>
     <t>普通的箭矢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +987,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1049,8 +1069,8 @@
       <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1105,8 +1125,8 @@
       <c r="B3" t="s">
         <v>106</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1161,8 +1181,8 @@
       <c r="B4" t="s">
         <v>106</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1217,8 +1237,8 @@
       <c r="B5" t="s">
         <v>106</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -1273,8 +1293,8 @@
       <c r="B6" t="s">
         <v>106</v>
       </c>
-      <c r="C6">
-        <v>5</v>
+      <c r="C6" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1329,7 +1349,7 @@
       <c r="B7" t="s">
         <v>106</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>11</v>
       </c>
       <c r="D7" t="s">
@@ -1385,7 +1405,7 @@
       <c r="B8" t="s">
         <v>106</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>12</v>
       </c>
       <c r="D8" t="s">
@@ -1441,7 +1461,7 @@
       <c r="B9" t="s">
         <v>106</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>13</v>
       </c>
       <c r="D9" t="s">
@@ -1497,7 +1517,7 @@
       <c r="B10" t="s">
         <v>106</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>14</v>
       </c>
       <c r="D10" t="s">
@@ -1553,7 +1573,7 @@
       <c r="B11" t="s">
         <v>106</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>15</v>
       </c>
       <c r="D11" t="s">
@@ -1609,7 +1629,7 @@
       <c r="B12" t="s">
         <v>106</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>21</v>
       </c>
       <c r="D12" t="s">
@@ -1665,7 +1685,7 @@
       <c r="B13" t="s">
         <v>106</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>22</v>
       </c>
       <c r="D13" t="s">
@@ -1721,7 +1741,7 @@
       <c r="B14" t="s">
         <v>106</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>24</v>
       </c>
       <c r="D14" t="s">
@@ -1777,7 +1797,7 @@
       <c r="B15" t="s">
         <v>106</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>25</v>
       </c>
       <c r="D15" t="s">
@@ -1833,7 +1853,7 @@
       <c r="B16" t="s">
         <v>107</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>64</v>
       </c>
       <c r="D16" t="s">
@@ -1872,7 +1892,7 @@
       <c r="B17" t="s">
         <v>107</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
@@ -1911,7 +1931,7 @@
       <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D18" t="s">
@@ -1950,7 +1970,7 @@
       <c r="B19" t="s">
         <v>107</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D19" t="s">
@@ -1989,7 +2009,7 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D20" t="s">
@@ -2028,7 +2048,7 @@
       <c r="B21" t="s">
         <v>107</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D21" t="s">
